--- a/medicine/Enfance/Pakkal/Pakkal.xlsx
+++ b/medicine/Enfance/Pakkal/Pakkal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pakkal est une série de romans d'aventures pour adolescents inspirée de l'histoire du roi Pacal II, écrite par Maxime Roussy et publiée aux éditions des Intouchables de la tome 1 à 8 et le reste des tomes sont publiés par  les éditions Marée Haute. 
 </t>
@@ -511,7 +523,9 @@
           <t>Les tomes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les larmes de Zipacnà
 À la recherche de l'arbre cosmique
@@ -555,7 +569,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce texte est tiré du livre.
 En 1946, un homme à la recherche de terres à cultiver au Chiapas, une région située dans le sud du Mexique, tombe par hasard sur des constructions de pierre érigées au milieu de nulle part. Même si la jungle a littéralement pris possession des lieux, l’état de préservation des habitations est remarquable. Cet endroit se nomme Palenque. Il s’agit d’un site maya à l’architecture très impressionnante, notamment en raison de la présence du temple des Inscriptions, qui comporte six cent dix-sept blocs ornés de glyphes séparés en trois panneaux. C’est la plus longue inscription maya connue.
@@ -590,7 +606,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pakkal (K'inich Janaab Pakkal)
 Ah Puch (Dieu de la mort)
